--- a/tests/artefacts/api/exports/import_template_mtef.xlsx
+++ b/tests/artefacts/api/exports/import_template_mtef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/sites/odi/liberia/aims/tests/artefacts/api/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960F5FFE-55F0-CF40-915B-FCC65A837A1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE639D1A-488A-A54D-B900-EDBCE06ED21F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>Vaccination project</t>
   </si>
   <si>
-    <t>FY20/21 (MTEF)</t>
+    <t>FY2020 (MTEF)</t>
   </si>
 </sst>
 </file>
